--- a/resources/assets/base.xlsx
+++ b/resources/assets/base.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\mford\fourth\scoresheet\resources\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2477A05C-166E-49DC-BEBD-950E6786A0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7185"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Season 2 Scoresheet" sheetId="1" r:id="rId1"/>
@@ -40,20 +46,20 @@
     <t>WSM Open</t>
   </si>
   <si>
-    <t>Badminton Leauge</t>
-  </si>
-  <si>
     <t>Scoresheet</t>
   </si>
   <si>
     <t xml:space="preserve">On completion of the match, please post a picture of the completed scoresheet on the "WSM Open Badminton League" Facebook page along with as many pictures / video's of the game as possible. </t>
   </si>
+  <si>
+    <t>Badminton League</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,31 +448,104 @@
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,84 +554,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,17 +569,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -581,6 +587,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -627,7 +641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,9 +673,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,6 +725,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -868,394 +918,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G2" sqref="G2:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="9" max="10" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="9" max="10" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="11.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:12" s="14" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="H7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="2:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6">
+        <v>3</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
+        <v>3</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:12" s="13" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1"/>
-    <row r="7" spans="2:12" s="42" customFormat="1" ht="24" thickBot="1">
-      <c r="B7" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="H7" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
-    </row>
-    <row r="8" spans="2:12" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:12" s="5" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B11" s="25">
-        <v>1</v>
-      </c>
-      <c r="C11" s="26">
-        <v>2</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26">
-        <v>1</v>
-      </c>
-      <c r="L11" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B12" s="25">
-        <v>1</v>
-      </c>
-      <c r="C12" s="26">
-        <v>3</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26">
-        <v>1</v>
-      </c>
-      <c r="L12" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B13" s="25">
-        <v>2</v>
-      </c>
-      <c r="C13" s="26">
-        <v>3</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26">
-        <v>2</v>
-      </c>
-      <c r="L13" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B14" s="25">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26">
-        <v>2</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26">
-        <v>1</v>
-      </c>
-      <c r="L14" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B15" s="25">
-        <v>1</v>
-      </c>
-      <c r="C15" s="26">
-        <v>3</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26">
-        <v>1</v>
-      </c>
-      <c r="L15" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B16" s="25">
-        <v>2</v>
-      </c>
-      <c r="C16" s="26">
-        <v>3</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26">
-        <v>2</v>
-      </c>
-      <c r="L16" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B17" s="25">
-        <v>2</v>
-      </c>
-      <c r="C17" s="26">
-        <v>1</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26">
-        <v>2</v>
-      </c>
-      <c r="L17" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B18" s="25">
-        <v>3</v>
-      </c>
-      <c r="C18" s="26">
-        <v>1</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26">
-        <v>3</v>
-      </c>
-      <c r="L18" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B19" s="28">
-        <v>3</v>
-      </c>
-      <c r="C19" s="29">
-        <v>2</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29">
-        <v>3</v>
-      </c>
-      <c r="L19" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="21" spans="2:12" s="37" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1"/>
-    <row r="23" spans="2:12" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B23" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:L3"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="B4:L5"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:L3"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
